--- a/docs/odh/shr-core-SubstitutionReason-model.xlsx
+++ b/docs/odh/shr-core-SubstitutionReason-model.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="46">
   <si>
     <t>Path</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>Code representing why should (not) substitution be made.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/v3-SubstanceAdminSubstitutionReason</t>
   </si>
 </sst>
 </file>
@@ -296,7 +302,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ3"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -329,7 +335,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="62.12890625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
@@ -602,13 +608,11 @@
         <v>36</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X3" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="X3" s="2"/>
       <c r="Y3" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="Z3" t="s" s="2">
         <v>36</v>
